--- a/medicine/Enfance/Alain_Bergeron/Alain_Bergeron.xlsx
+++ b/medicine/Enfance/Alain_Bergeron/Alain_Bergeron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Bergeron, né le 11 février 1950 à Paris, est un auteur québécois demeurant à Québec, connu aussi sous le nom de plume Brian Eaglenor (anagramme de son nom).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Bergeron est diplômé en sciences sociales de l'Université Laval, en administration de l'ENAP (École nationale d'administration publique) et en histoire et politique des sciences. En 2004, il est nommé secrétaire général du Conseil de la science et de la technologie au sein du gouvernement du Québec. Un été de Jessica, son premier roman, est publié en 1978 et est également présenté en épisodes dans le journal Le Soleil.  En plus d'être un écrivain de science-fiction, il est chroniqueur au magazine Solaris en y rédigeant pendant quelques années L'anachorète dilettante.  Il est également essayiste et cosigne Radiographie d'une série culte : The X-Files avec Laurine Spehner.  Il est de plus l'auteur de plusieurs avis scientifiques destinés au conseil du gouvernement du Québec.
 </t>
@@ -542,22 +556,127 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il a écrit plus de 300 livres, certains ont été traduits dans une dizaine de langues. Au total, près de 2 millions d'exemplaires ont été vendus de par le monde[1],[2].
-Romans et essais de science-fiction
-Un été de Jessica (roman, éd. Quinze, 1978)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a écrit plus de 300 livres, certains ont été traduits dans une dizaine de langues. Au total, près de 2 millions d'exemplaires ont été vendus de par le monde,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alain_Bergeron</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Bergeron</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans et essais de science-fiction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un été de Jessica (roman, éd. Quinze, 1978)
 Le Chant des Hayats (roman littérature-jeunesse, éditions Paulines : Jeunesse-pop 83, 1992)
 Le Corbillard (roman littérature-jeunesse sous le pseudonyme-anagramme "Brian Eaglenor", Héritage : Échos aventure, 1994)
 L'Ombre dans le cristal (roman littérature-jeunesse, éditions Paulines : Jeunesse-pop 104, 1995)
 Grignotements (roman littérature-jeunesse sous le pseudonyme-anagramme "Brian Eaglenor", Héritage: Échos aventure, 1994)
 L'Ennemie (roman littérature-jeunesse sous le pseudonyme-anagramme "Brian Eaglenor", Héritage, 1997)
 Radiographie d'une série culte : The X-Files [avec Laurine Spehner] (essai, éd. Alire, 1999)
-Phaos (roman, éd. Alire, 2003)
-Recueils de nouvelles de science-fiction
-Corps-machines &amp; rêves d'anges (Recueil de nouvelles, Vents d'Ouest, 1997, réédition augmentée chez Les Moutons électriques, coll. Bibliothèque voltaïque, 2008)
-Nouvelles
-Bonne fête, Univers (Solaris 65, 1985)
+Phaos (roman, éd. Alire, 2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alain_Bergeron</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Bergeron</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles de science-fiction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Corps-machines &amp; rêves d'anges (Recueil de nouvelles, Vents d'Ouest, 1997, réédition augmentée chez Les Moutons électriques, coll. Bibliothèque voltaïque, 2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alain_Bergeron</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Bergeron</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bonne fête, Univers (Solaris 65, 1985)
 Reparution dans Corps-machines et rêves d'anges (Vents d'Ouest, 1997)
 Traduction anglaise : Happy Birthday, Universe, in Tesseracts 2 (Press Porcepic, 1987)
 La Voix des étoiles (L'Année 1985 de la science-fiction et du fantastique québécois, Le Passeur, 1986)
@@ -603,64 +722,71 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Alain_Bergeron</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alain_Bergeron</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Avis scientifique au Gouvernement
-2000 : Innovation sociale et innovation technologique, l’apport de la recherche en sciences sociales et humaines
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Avis scientifique au Gouvernement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2000 : Innovation sociale et innovation technologique, l’apport de la recherche en sciences sociales et humaines
 2001 : La bio-informatique au Québec : un levier essentiel du développement des bio-industries
 2002 : OGM et alimentation humaine : impacts et enjeux pour le Québec</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Alain_Bergeron</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alain_Bergeron</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix littéraires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1980: Prix Boréal (pour Un été de Jessica)
 1987: Prix Boréal (ex æquo) (pour Bonne fête, Univers)
